--- a/public/assets/reports/template_visualOps_report.xlsx
+++ b/public/assets/reports/template_visualOps_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claus\Documents\Arquivos de programação\Estudo\SPTECH\2°Semestre\Projeto PI\front-VisualOps\public\assets\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEDA2841-7B34-436E-BBF0-8272C3266394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27F09D1-7EA1-4EC5-A93A-93D237D09CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{31F7E524-E590-4372-ACE9-53C5D18A9B66}"/>
   </bookViews>
@@ -267,26 +267,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -301,20 +296,25 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3206,235 +3206,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -3465,31 +3465,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -3500,21 +3500,21 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -3522,28 +3522,28 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="12" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -3551,24 +3551,24 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="19"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -3576,24 +3576,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -3601,24 +3601,24 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -3626,24 +3626,24 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="19"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -3651,24 +3651,24 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -3676,17 +3676,17 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -3701,17 +3701,17 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -3726,17 +3726,17 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -3751,17 +3751,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -3776,17 +3776,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -3801,17 +3801,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -3826,17 +3826,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -3851,17 +3851,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -3876,17 +3876,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -3901,17 +3901,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -3926,17 +3926,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -3951,17 +3951,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -3976,17 +3976,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -4001,17 +4001,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -4026,85 +4026,55 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A1:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:W9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="A18:B18"/>
@@ -4121,48 +4091,78 @@
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A1:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4184,235 +4184,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -4443,31 +4443,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -4478,21 +4478,21 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -4500,28 +4500,28 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="12" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -4529,24 +4529,24 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="19"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -4554,24 +4554,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -4579,24 +4579,24 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -4604,24 +4604,24 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="19"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -4629,24 +4629,24 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -4654,17 +4654,17 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -4679,17 +4679,17 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -4704,17 +4704,17 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -4729,17 +4729,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -4754,17 +4754,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -4779,17 +4779,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -4804,17 +4804,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -4829,17 +4829,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -4854,17 +4854,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -4879,17 +4879,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -4904,17 +4904,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -4929,17 +4929,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -4954,17 +4954,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -4979,17 +4979,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -5004,85 +5004,55 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A1:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:W9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="A18:B18"/>
@@ -5099,48 +5069,78 @@
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A1:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5162,235 +5162,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -5421,31 +5421,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -5456,21 +5456,21 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -5478,28 +5478,28 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="12" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -5507,24 +5507,24 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="19"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -5532,24 +5532,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -5557,24 +5557,24 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -5582,24 +5582,24 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="19"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -5607,24 +5607,24 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -5632,17 +5632,17 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -5657,17 +5657,17 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -5682,17 +5682,17 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -5707,17 +5707,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -5732,17 +5732,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -5757,17 +5757,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -5782,17 +5782,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -5807,17 +5807,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -5832,17 +5832,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -5857,17 +5857,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -5882,17 +5882,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -5907,17 +5907,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -5932,17 +5932,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -5957,17 +5957,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -5982,85 +5982,55 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A1:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:W9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="A18:B18"/>
@@ -6077,48 +6047,78 @@
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A1:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6131,7 +6131,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6140,235 +6140,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -6399,31 +6399,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -6434,21 +6434,21 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -6456,28 +6456,28 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="12" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -6485,24 +6485,24 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="19"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -6510,24 +6510,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -6535,24 +6535,24 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -6560,24 +6560,24 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="19"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -6585,24 +6585,24 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -6610,17 +6610,17 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -6635,17 +6635,17 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -6660,17 +6660,17 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -6685,17 +6685,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -6710,17 +6710,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -6735,17 +6735,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -6760,17 +6760,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -6785,17 +6785,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -6810,17 +6810,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -6835,17 +6835,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -6860,17 +6860,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -6885,17 +6885,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -6910,17 +6910,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -6935,17 +6935,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -6960,85 +6960,55 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A1:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:W9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="A18:B18"/>
@@ -7055,48 +7025,78 @@
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A1:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7118,235 +7118,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -7377,31 +7377,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -7412,21 +7412,21 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -7434,28 +7434,28 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="12" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -7463,24 +7463,24 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="19"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -7488,24 +7488,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -7513,24 +7513,24 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -7538,24 +7538,24 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="19"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -7563,24 +7563,24 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -7588,17 +7588,17 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -7613,17 +7613,17 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -7638,17 +7638,17 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -7663,17 +7663,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -7688,17 +7688,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -7713,17 +7713,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -7738,17 +7738,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -7763,17 +7763,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -7788,17 +7788,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -7813,17 +7813,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -7838,17 +7838,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -7863,17 +7863,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -7888,17 +7888,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -7913,17 +7913,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -7938,85 +7938,55 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A1:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:W9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="A18:B18"/>
@@ -8033,48 +8003,78 @@
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A1:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8096,235 +8096,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -8355,31 +8355,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -8390,21 +8390,21 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -8412,28 +8412,28 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="12" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -8441,24 +8441,24 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="19"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -8466,24 +8466,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -8491,24 +8491,24 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -8516,24 +8516,24 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="19"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -8541,24 +8541,24 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -8566,17 +8566,17 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -8591,17 +8591,17 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -8616,17 +8616,17 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -8641,17 +8641,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -8666,17 +8666,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -8691,17 +8691,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -8716,17 +8716,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -8741,17 +8741,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -8766,17 +8766,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -8791,17 +8791,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -8816,17 +8816,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -8841,17 +8841,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -8866,17 +8866,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -8891,17 +8891,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -8916,85 +8916,55 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A1:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:W9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="A18:B18"/>
@@ -9011,48 +8981,78 @@
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A1:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
